--- a/experimentalAnalysis/parameterSweep.xlsx
+++ b/experimentalAnalysis/parameterSweep.xlsx
@@ -2483,6 +2483,930 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>8.0593973812663602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8334719580899895E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34103585076725E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2473605503575599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2172019565964293E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4115585956796101E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9935794516972302E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.80231234740206E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8287339381906493E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9515329559105501E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6974709293046895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9699999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3672695320047901E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.8911931727299398E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.45980792716176899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.7273992357903803E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.7903384455444E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7630439566490403E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.9766390260580898E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8635585945115605E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.4153975240180796E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.10777997159594E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8625037697125999E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.2695006201668706E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.8995053899072701E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.07873292936457E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.8437950820296203E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.5301527433738006E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.14033781612076099</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5437115030603903E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.21333460059645401</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.39069948246014602</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.40255248203851302</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39816238700367002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.241387496837835</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.197251189244838</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.13441354590718799</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.59143767500261901</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.17329021529635799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.100020038440556</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.14781222477775499</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.20081884200261499</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.20081884200261499</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.88615683308284798</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.7905147261320603E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.30356025546961E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1170592384"/>
+        <c:axId val="1170595104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1170592384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170595104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1170595104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170592384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2524,6 +3448,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3582,6 +4546,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3644,6 +5124,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5634,10 +7144,10 @@
   <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
